--- a/patient_data/patient_62.xlsx
+++ b/patient_data/patient_62.xlsx
@@ -521,16 +521,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -598,16 +598,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1493,13 +1493,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1570,13 +1570,13 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1605,19 +1605,19 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1685,10 +1685,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1827,22 +1827,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1904,19 +1904,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
